--- a/xml/Cryptos-MPT.xlsx
+++ b/xml/Cryptos-MPT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asankhaya/Dropbox/stuff/Misc Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">MPT!$A$13:$A$17</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">MPT!$A$18</definedName>
@@ -32,6 +33,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">MPT!$J$20</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -50,9 +52,9 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -115,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000000%"/>
   </numFmts>
@@ -129,22 +131,26 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -330,12 +336,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -378,7 +387,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -448,7 +456,7 @@
                   <c:v>63.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.54</c:v>
+                  <c:v>71.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>94.51</c:v>
@@ -463,27 +471,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>350.0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-005F-4A3A-8C90-A550F0F5B960}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -517,6 +530,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -578,6 +592,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1223,20 +1238,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400538</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107464</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19537</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371231</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>185617</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>930519</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1519,22 +1540,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1564,7 +1585,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1573,7 +1594,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1582,7 +1603,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1591,7 +1612,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1600,7 +1621,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1609,7 +1630,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1618,7 +1639,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,17 +1647,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="11">
         <f>A13</f>
-        <v>0.51349833322326222</v>
+        <v>0.38254724025862341</v>
       </c>
       <c r="D11" s="11">
         <f>A14</f>
-        <v>0.24090780017324129</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
         <f>A15</f>
@@ -1644,14 +1665,14 @@
       </c>
       <c r="F11" s="11">
         <f>A16</f>
-        <v>0</v>
+        <v>0.61745275974137637</v>
       </c>
       <c r="G11" s="11">
         <f>A17</f>
-        <v>0.24559386660349644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1674,9 +1695,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>0.51349833322326222</v>
+        <v>0.38254724025862341</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -1713,9 +1734,9 @@
         <v>226.93258614047397</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>0.24090780017324129</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -1752,7 +1773,7 @@
         <v>581.47204345542877</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>0</v>
       </c>
@@ -1791,9 +1812,9 @@
         <v>769.603795979491</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>0</v>
+        <v>0.61745275974137637</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -1830,9 +1851,9 @@
         <v>21.358013611815476</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>0.24559386660349644</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -1869,18 +1890,18 @@
         <v>380.25927261712292</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f>SUM(A13:A17)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="C18" s="10">
         <f>C11*SUMPRODUCT(A13:A17,C13:C17)</f>
-        <v>90.278385972047886</v>
+        <v>75.513107401609403</v>
       </c>
       <c r="D18" s="5">
         <f>D11*SUMPRODUCT(A13:A17,D13:D17)</f>
-        <v>436.93290479314879</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <f>E11*SUMPRODUCT(A13:A17,E13:E17)</f>
@@ -1888,40 +1909,40 @@
       </c>
       <c r="F18" s="5">
         <f>F11*SUMPRODUCT(A13:A17,F13:F17)</f>
-        <v>0</v>
+        <v>369.35340675259522</v>
       </c>
       <c r="G18" s="5">
         <f>G11*SUMPRODUCT(A13:A17,G13:G17)</f>
-        <v>217.13964737826441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="4">
         <f>SUMPRODUCT(A13:A17,K13:K17)</f>
-        <v>350.00000066213676</v>
+        <v>99.999999000000003</v>
       </c>
       <c r="K19" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="12">
         <f>SQRT(SUM(C18:G18))*SQRT(12)</f>
-        <v>94.510376455294747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73.064342670350868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1965,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1988,7 @@
         <v>94.51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +2011,7 @@
         <v>0.51349833322326222</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +2034,7 @@
         <v>0.24090780017324129</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2036,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2059,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2094,12 +2115,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>42674</v>
       </c>
@@ -2143,7 +2168,7 @@
         <v>-2.5062656641604031</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>42704</v>
       </c>
@@ -2167,7 +2192,7 @@
         <v>11.311053984575834</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>42735</v>
       </c>
@@ -2191,7 +2216,7 @@
         <v>-5.7736720554272516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>42766</v>
       </c>
@@ -2215,7 +2240,7 @@
         <v>-7.598039215686275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>42794</v>
       </c>
@@ -2238,7 +2263,7 @@
         <v>76.92307692307692</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>42825</v>
       </c>
@@ -2262,7 +2287,7 @@
         <v>135.5322338830585</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>42855</v>
       </c>
@@ -2286,7 +2311,7 @@
         <v>61.043921069382556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>42886</v>
       </c>
@@ -2310,7 +2335,7 @@
         <v>59.48616600790514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>42916</v>
       </c>
@@ -2335,7 +2360,7 @@
         <v>6.6171003717472159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>42947</v>
       </c>
@@ -2360,7 +2385,7 @@
         <v>65.178986517898636</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>42978</v>
       </c>
@@ -2385,7 +2410,7 @@
         <v>-22.403602589361103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>43008</v>
       </c>
